--- a/1920c/joseph/Simulation Results - Shengbo Zou.xlsx
+++ b/1920c/joseph/Simulation Results - Shengbo Zou.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph Zou\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephzou/Desktop/School Work/ComputationalGenetics/1920c/joseph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1768ED8-32A6-41CD-9952-2A76850309F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134F116D-52B2-FC49-85A5-57ED18A98006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{9C7130E8-EE7D-45A5-96C2-720A75BD80C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{9C7130E8-EE7D-45A5-96C2-720A75BD80C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -426,20 +424,20 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="4" width="27.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -454,7 +452,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>3</v>
@@ -475,7 +473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -489,16 +487,16 @@
         <v>94</v>
       </c>
       <c r="E3">
-        <v>36.42</v>
+        <v>40.130000000000003</v>
       </c>
       <c r="F3">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="G3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -512,16 +510,16 @@
         <v>74</v>
       </c>
       <c r="E4">
-        <v>18.73</v>
+        <v>28.22</v>
       </c>
       <c r="F4">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="G4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -535,16 +533,16 @@
         <v>90</v>
       </c>
       <c r="E5">
-        <v>37.58</v>
+        <v>31.18</v>
       </c>
       <c r="F5">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G5">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -558,16 +556,16 @@
         <v>57</v>
       </c>
       <c r="E6">
-        <v>41.81</v>
+        <v>36.89</v>
       </c>
       <c r="F6">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="G6">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -581,16 +579,16 @@
         <v>73</v>
       </c>
       <c r="E7">
-        <v>26.27</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="F7">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="G7">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -604,16 +602,16 @@
         <v>73</v>
       </c>
       <c r="E8">
-        <v>75.709999999999994</v>
+        <v>12.58</v>
       </c>
       <c r="F8">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="G8">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -627,16 +625,16 @@
         <v>114</v>
       </c>
       <c r="E9">
-        <v>67.42</v>
+        <v>8.64</v>
       </c>
       <c r="F9">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="G9">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -650,16 +648,16 @@
         <v>97</v>
       </c>
       <c r="E10">
-        <v>52.6</v>
+        <v>26.36</v>
       </c>
       <c r="F10">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="G10">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -673,16 +671,16 @@
         <v>86</v>
       </c>
       <c r="E11">
-        <v>29.67</v>
+        <v>12.56</v>
       </c>
       <c r="F11">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G11">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -696,16 +694,16 @@
         <v>111</v>
       </c>
       <c r="E12">
-        <v>47.84</v>
+        <v>21.96</v>
       </c>
       <c r="F12">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="G12">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -723,18 +721,18 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>43.405000000000008</v>
+        <v>23.812000000000005</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>123.2</v>
+        <v>69.8</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>76.900000000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -752,18 +750,18 @@
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>17.032115106468702</v>
+        <v>10.107656305989032</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>41.727209348337688</v>
+        <v>32.055576737909426</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>19.684765683136796</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.35">
+        <v>19.032603605392509</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -771,7 +769,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>10</v>
       </c>
@@ -779,7 +777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>11</v>
       </c>
@@ -787,12 +785,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
